--- a/src/main/resources/testdata_SmartCast.xlsx
+++ b/src/main/resources/testdata_SmartCast.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HT\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chaitanya Shastry\IdeaProjects\test-automation\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F5D5EC-0438-48D4-A79B-2D448841372E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestConfig" sheetId="8" r:id="rId1"/>
@@ -754,13 +755,13 @@
     <t>phone:: 8602265313 || password:: Htsmartcast@12 || expectedUserName:: htsmartcast1</t>
   </si>
   <si>
-    <t xml:space="preserve">expectedTitle:: HT Smartcast: Podcast , Audio News Today, Audio Clips </t>
+    <t>expectedTitle:: Listen Latest &amp; Best Podcasts Shows, Audio News, Clips Online - HT Smartcast</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -831,41 +832,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1083,293 +1075,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="21" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="19" style="7" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="7" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="7.86328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="38.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.73046875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.73046875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.59765625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.73046875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.73046875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.3984375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.3984375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="15.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:14" s="5" customFormat="1" ht="15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="28.5" customHeight="1">
+    <row r="2" spans="1:14" s="6" customFormat="1" ht="28.5" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="9" customFormat="1" ht="28.5" customHeight="1">
+      <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="6" customFormat="1" ht="28.5" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="9" customFormat="1" ht="28.5" customHeight="1">
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="6" customFormat="1" ht="28.5" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="8" customFormat="1" ht="30.75" customHeight="1">
+      <c r="D4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="5" customFormat="1" ht="30.75" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="9" customFormat="1" ht="28.5" customHeight="1">
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="6" customFormat="1" ht="28.5" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="12" t="s">
+      <c r="D6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1377,43 +1369,43 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="12" t="s">
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1421,43 +1413,43 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="12" t="s">
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1468,18 +1460,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="99.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" customWidth="1"/>
+    <col min="2" max="2" width="38.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
@@ -1489,84 +1481,84 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="11" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="8" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="8" t="s">
         <v>239</v>
       </c>
     </row>
@@ -1576,18 +1568,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="2" customWidth="1"/>
-    <col min="3" max="9" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" style="2" customWidth="1"/>
+    <col min="3" max="9" width="32.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
@@ -1655,7 +1647,7 @@
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>164</v>
       </c>
@@ -1704,7 +1696,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="180">
+    <row r="5" spans="1:9" ht="165">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -1733,7 +1725,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="180">
+    <row r="6" spans="1:9" ht="165">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1744,7 +1736,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="180">
+    <row r="7" spans="1:9" ht="165">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1755,7 +1747,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="180">
+    <row r="8" spans="1:9" ht="165">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1766,7 +1758,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="180">
+    <row r="9" spans="1:9" ht="165">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1777,7 +1769,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="180">
+    <row r="10" spans="1:9" ht="165">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1788,7 +1780,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="180">
+    <row r="11" spans="1:9" ht="165">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1799,7 +1791,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1808,7 +1800,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="225">
+    <row r="13" spans="1:9" ht="210">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1819,7 +1811,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="135">
+    <row r="14" spans="1:9" ht="120">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1830,7 +1822,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="135">
+    <row r="15" spans="1:9" ht="120">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,14 +1833,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="30">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="135">
       <c r="A17" s="1" t="s">
@@ -1857,11 +1849,11 @@
       <c r="B17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="135">
+    <row r="18" spans="1:3" ht="120">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1890,132 +1882,132 @@
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="300">
+    <row r="21" spans="1:3" ht="255">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="300">
+    <row r="22" spans="1:3" ht="255">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="300">
+    <row r="23" spans="1:3" ht="255">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="300">
+    <row r="24" spans="1:3" ht="255">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="300">
+    <row r="25" spans="1:3" ht="255">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="300">
+    <row r="26" spans="1:3" ht="255">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="300">
+    <row r="27" spans="1:3" ht="255">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="300">
+    <row r="28" spans="1:3" ht="255">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="300">
+    <row r="29" spans="1:3" ht="255">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="300">
+    <row r="30" spans="1:3" ht="255">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="390">
+    <row r="31" spans="1:3" ht="345">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="225">
+    <row r="32" spans="1:3" ht="210">
       <c r="A32" s="1" t="s">
         <v>38</v>
       </c>
@@ -2033,7 +2025,7 @@
       <c r="B33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="1" t="s">
@@ -2044,80 +2036,80 @@
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" ht="165">
+    <row r="35" spans="1:3" ht="150">
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="180">
+    <row r="36" spans="1:3" ht="150">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="180">
+    <row r="37" spans="1:3" ht="150">
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="180">
+    <row r="38" spans="1:3" ht="150">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="180">
+    <row r="39" spans="1:3" ht="150">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="180">
+    <row r="40" spans="1:3" ht="150">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="180">
+    <row r="41" spans="1:3" ht="150">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2128,168 +2120,168 @@
       <c r="B42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:3" ht="270">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" ht="240">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="180">
+    <row r="44" spans="1:3" ht="150">
       <c r="A44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="165">
+    <row r="45" spans="1:3" ht="150">
       <c r="A45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3" ht="15">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:3" ht="165">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3" ht="150">
       <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="180">
+    <row r="48" spans="1:3" ht="150">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="180">
+    <row r="49" spans="1:3" ht="150">
       <c r="A49" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="135">
+    <row r="50" spans="1:3" ht="120">
       <c r="A50" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="135">
+    <row r="51" spans="1:3" ht="120">
       <c r="A51" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="135">
+    <row r="52" spans="1:3" ht="120">
       <c r="A52" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="135">
+    <row r="53" spans="1:3" ht="120">
       <c r="A53" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="135">
+    <row r="54" spans="1:3" ht="120">
       <c r="A54" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="135">
+    <row r="55" spans="1:3" ht="120">
       <c r="A55" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="135">
+    <row r="56" spans="1:3" ht="120">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30">
+    <row r="57" spans="1:3" ht="15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="1"/>
     </row>
     <row r="58" spans="1:3" ht="30">
       <c r="A58" s="1" t="s">
@@ -2298,49 +2290,49 @@
       <c r="B58" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" ht="135">
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:3" ht="120">
       <c r="A59" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="135">
+    <row r="60" spans="1:3" ht="120">
       <c r="A60" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="135">
+    <row r="61" spans="1:3" ht="120">
       <c r="A61" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="135">
+    <row r="62" spans="1:3" ht="120">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2351,18 +2343,18 @@
       <c r="B63" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="135">
+    <row r="64" spans="1:3" ht="120">
       <c r="A64" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2373,29 +2365,29 @@
       <c r="B65" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="135">
+    <row r="66" spans="1:3" ht="120">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="135">
+    <row r="67" spans="1:3" ht="120">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2406,40 +2398,40 @@
       <c r="B68" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="135">
+    <row r="69" spans="1:3" ht="120">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="210">
+    <row r="70" spans="1:3" ht="195">
       <c r="A70" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="135">
+    <row r="71" spans="1:3" ht="120">
       <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2450,7 +2442,7 @@
       <c r="B72" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2461,7 +2453,7 @@
       <c r="B73" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2472,7 +2464,7 @@
       <c r="B74" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2483,7 +2475,7 @@
       <c r="B75" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2494,7 +2486,7 @@
       <c r="B76" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2505,7 +2497,7 @@
       <c r="B77" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2516,7 +2508,7 @@
       <c r="B78" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2527,7 +2519,7 @@
       <c r="B79" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="1" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2538,29 +2530,29 @@
       <c r="B80" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="195">
+    <row r="81" spans="1:3" ht="180">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="90">
+    <row r="82" spans="1:3" ht="75">
       <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2571,29 +2563,29 @@
       <c r="B83" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="135">
+    <row r="84" spans="1:3" ht="120">
       <c r="A84" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="150">
+    <row r="85" spans="1:3" ht="120">
       <c r="A85" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="3" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2604,7 +2596,7 @@
       <c r="B86" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="1" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2615,7 +2607,7 @@
       <c r="B87" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2626,7 +2618,7 @@
       <c r="B88" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2637,7 +2629,7 @@
       <c r="B89" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2648,7 +2640,7 @@
       <c r="B90" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2659,7 +2651,7 @@
       <c r="B91" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2670,7 +2662,7 @@
       <c r="B92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2692,7 +2684,7 @@
       <c r="B94" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2703,11 +2695,11 @@
       <c r="B95" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="150">
+    <row r="96" spans="1:3" ht="135">
       <c r="A96" s="1" t="s">
         <v>107</v>
       </c>
@@ -2736,7 +2728,7 @@
       <c r="B98" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2747,7 +2739,7 @@
       <c r="B99" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="1" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2758,7 +2750,7 @@
       <c r="B100" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2769,7 +2761,7 @@
       <c r="B101" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2780,18 +2772,18 @@
       <c r="B102" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="60">
+    <row r="103" spans="1:3" ht="45">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="1" t="s">
         <v>217</v>
       </c>
     </row>
@@ -2802,7 +2794,7 @@
       <c r="B104" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2813,7 +2805,7 @@
       <c r="B105" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2824,7 +2816,7 @@
       <c r="B106" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2835,7 +2827,7 @@
       <c r="B107" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -2846,18 +2838,18 @@
       <c r="B108" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="4" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="30">
+    <row r="109" spans="1:3" ht="15">
       <c r="A109" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="4" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2868,7 +2860,7 @@
       <c r="B110" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="4" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2879,7 +2871,7 @@
       <c r="B111" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2890,7 +2882,7 @@
       <c r="B112" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="4" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2901,7 +2893,7 @@
       <c r="B113" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -2912,16 +2904,16 @@
       <c r="B114" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C114" s="7"/>
-    </row>
-    <row r="115" spans="1:3" ht="300">
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="1:3" ht="270">
       <c r="A115" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2932,7 +2924,7 @@
       <c r="B116" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2943,7 +2935,7 @@
       <c r="B117" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="4" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2954,7 +2946,7 @@
       <c r="B118" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2965,7 +2957,7 @@
       <c r="B119" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2976,7 +2968,7 @@
       <c r="B120" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2987,7 +2979,7 @@
       <c r="B121" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2998,31 +2990,31 @@
       <c r="B122" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="1" t="s">
         <v>226</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="3" max="9" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.265625" customWidth="1"/>
+    <col min="2" max="2" width="36.265625" customWidth="1"/>
+    <col min="3" max="9" width="32.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
